--- a/registrations.xlsx
+++ b/registrations.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5213\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E3D818-AFA3-4F0F-B963-6801E5011004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -31,153 +28,144 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>John Doe</t>
+    <t>College Name</t>
+  </si>
+  <si>
+    <t>raghu</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>CERT2025082901</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>svce</t>
   </si>
   <si>
     <t>Jane Smith</t>
   </si>
   <si>
+    <t>Data Science Basics</t>
+  </si>
+  <si>
+    <t>CERT2025082902</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>Zylotech Academy</t>
+  </si>
+  <si>
     <t>Arjun Kumar</t>
   </si>
   <si>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>CERT2025082903</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
     <t>Priya Sharma</t>
   </si>
   <si>
-    <t>Python Programming</t>
-  </si>
-  <si>
-    <t>Data Science Basics</t>
-  </si>
-  <si>
-    <t>Web Development</t>
-  </si>
-  <si>
     <t>Machine Learning</t>
   </si>
   <si>
-    <t>2025-08-29</t>
-  </si>
-  <si>
-    <t>CERT2025082901</t>
-  </si>
-  <si>
-    <t>CERT2025082902</t>
-  </si>
-  <si>
-    <t>CERT2025082903</t>
-  </si>
-  <si>
     <t>CERT2025082904</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>Zylotech Academy</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>designation</t>
-  </si>
-  <si>
-    <t>college</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
+      <color/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -369,7 +357,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="9525" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -378,13 +366,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="25400" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="38100" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -394,7 +382,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="20000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -403,7 +391,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -412,7 +400,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -422,12 +410,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -458,7 +446,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -477,7 +465,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -489,119 +477,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="17.86"/>
+    <col customWidth="1" min="3" max="3" width="23.43"/>
+    <col customWidth="1" min="4" max="11" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/registrations.xlsx
+++ b/registrations.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivs\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5866324C-DF3D-4F7E-8CB8-03845FC76E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -19,9 +28,6 @@
     <t>Designation</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Certificate ID</t>
   </si>
   <si>
@@ -31,12 +37,6 @@
     <t>College Name</t>
   </si>
   <si>
-    <t>raghu</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
     <t>2025-08-29</t>
   </si>
   <si>
@@ -46,9 +46,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>svce</t>
-  </si>
-  <si>
     <t>Jane Smith</t>
   </si>
   <si>
@@ -83,37 +80,66 @@
   </si>
   <si>
     <t>CERT2025082904</t>
+  </si>
+  <si>
+    <t>RAGHUVARAN E</t>
+  </si>
+  <si>
+    <t>ASSISTANT PROFESSOR</t>
+  </si>
+  <si>
+    <t>SRI VENKATESWARA COLLEGE OF ENGINEERING</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>eraghu21@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
-      <sz val="11.0"/>
-      <color/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -127,45 +153,47 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -357,7 +385,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="9525" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -366,13 +394,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="25400" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="38100" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -382,7 +410,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="20000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -391,7 +419,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -400,7 +428,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -410,12 +438,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -446,7 +474,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -465,7 +493,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -477,119 +505,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="23.43"/>
-    <col customWidth="1" min="4" max="11" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="F5" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -673,9 +701,10 @@
     <row r="99" ht="15.75" customHeight="1"/>
     <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{758CF6E2-52FA-4457-9C68-E889103E74D4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>